--- a/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/资产总计.xlsx
+++ b/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/资产总计.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,377 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>411.65274</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1980.78211</v>
-      </c>
-      <c r="D2" t="n">
-        <v>355.81558</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.271</v>
-      </c>
-      <c r="F2" t="n">
-        <v>327.7003</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1398.571</v>
-      </c>
-      <c r="H2" t="n">
-        <v>527.5047499999999</v>
-      </c>
-      <c r="I2" t="n">
-        <v>529.8095</v>
-      </c>
-      <c r="J2" t="n">
-        <v>286.44126</v>
-      </c>
-      <c r="K2" t="n">
-        <v>925.54552</v>
-      </c>
-      <c r="L2" t="n">
-        <v>25714.06</v>
-      </c>
-      <c r="M2" t="n">
-        <v>166.55091</v>
-      </c>
-      <c r="N2" t="n">
-        <v>307.38642</v>
-      </c>
-      <c r="O2" t="n">
-        <v>919.11248</v>
-      </c>
-      <c r="P2" t="n">
-        <v>341.46661</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>4.00199</v>
-      </c>
-      <c r="R2" t="n">
-        <v>797.56298</v>
-      </c>
-      <c r="S2" t="n">
-        <v>256.32506</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>409.91891</v>
-      </c>
-      <c r="V2" t="n">
-        <v>12.91465</v>
-      </c>
-      <c r="W2" t="n">
-        <v>42.94884</v>
-      </c>
-      <c r="X2" t="n">
-        <v>7.72182</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>2182.69704</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>4202.17712</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1598.64101</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>500.39243</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>172.06261</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>35.60659</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1228.46051</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>31.33529</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>910.20147</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>999.16036</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1270.12322</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>20.24334</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>635.04497</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>711.12291</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>762.50852</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>443.23708</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1.03789</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>459.79286</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2138.48988</v>
-      </c>
-      <c r="D3" t="n">
-        <v>374.31157</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>362.48782</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1551.51203</v>
-      </c>
-      <c r="H3" t="n">
-        <v>332.77813</v>
-      </c>
-      <c r="I3" t="n">
-        <v>580.26674</v>
-      </c>
-      <c r="J3" t="n">
-        <v>387.86723</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1045.05421</v>
-      </c>
-      <c r="L3" t="n">
-        <v>28354.46</v>
-      </c>
-      <c r="M3" t="n">
-        <v>191.22684</v>
-      </c>
-      <c r="N3" t="n">
-        <v>338.10255</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1033.49683</v>
-      </c>
-      <c r="P3" t="n">
-        <v>308.04335</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5.20722</v>
-      </c>
-      <c r="R3" t="n">
-        <v>836.95875</v>
-      </c>
-      <c r="S3" t="n">
-        <v>273.73902</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>439.33139</v>
-      </c>
-      <c r="V3" t="n">
-        <v>17.70694</v>
-      </c>
-      <c r="W3" t="n">
-        <v>40.66361</v>
-      </c>
-      <c r="X3" t="n">
-        <v>24.15985</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>2529.80421</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>4800.35011</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1759.7666</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>530.67404</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>407.85556</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>101.6354</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1343.18291</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>42.10486</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>961.65157</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1116.3936</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1292.46502</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>18.56143</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>692.56619</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>732.65533</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>777.17776</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>505.06204</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1.35989</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>567.7997</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2445.45376</v>
-      </c>
-      <c r="D4" t="n">
-        <v>475.42138</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>420.98894</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1691.56535</v>
-      </c>
-      <c r="H4" t="n">
-        <v>370.99878</v>
-      </c>
-      <c r="I4" t="n">
-        <v>651.2584900000001</v>
-      </c>
-      <c r="J4" t="n">
-        <v>370.37299</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1166.14069</v>
-      </c>
-      <c r="L4" t="n">
-        <v>31513.76</v>
-      </c>
-      <c r="M4" t="n">
-        <v>217.92904</v>
-      </c>
-      <c r="N4" t="n">
-        <v>387.06936</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1172.2729</v>
-      </c>
-      <c r="P4" t="n">
-        <v>398.91688</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>5.74654</v>
-      </c>
-      <c r="R4" t="n">
-        <v>925.51108</v>
-      </c>
-      <c r="S4" t="n">
-        <v>272.92154</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>487.88959</v>
-      </c>
-      <c r="V4" t="n">
-        <v>14.13704</v>
-      </c>
-      <c r="W4" t="n">
-        <v>64.30755000000001</v>
-      </c>
-      <c r="X4" t="n">
-        <v>25.7217</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>2596.09807</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>5618.85227</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1831.73412</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>632.66507</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>457.68175</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>104.50398</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1496.25329</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>77.13164</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1021.04783</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>1191.93615</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1383.63865</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>19.42019</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>775.75758</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>839.48297</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>789.48142</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>537.32834</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>1.98792</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
